--- a/database/数据库结构设计.xlsx
+++ b/database/数据库结构设计.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github_file\ruanjiangongcheng\try_2\leonvoshop\database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{349A8BFB-5A2F-4213-9C0F-4324438BD667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="11630"/>
+    <workbookView xWindow="24" yWindow="552" windowWidth="17280" windowHeight="11556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -155,9 +159,6 @@
     <t>评分（推流）</t>
   </si>
   <si>
-    <t>订单order</t>
-  </si>
-  <si>
     <t>oid</t>
   </si>
   <si>
@@ -279,19 +280,17 @@
   </si>
   <si>
     <t>评论具体内容</t>
+  </si>
+  <si>
+    <t>订单ordered</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,104 +307,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -413,240 +318,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -654,255 +339,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -912,90 +355,162 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
         <color theme="1"/>
       </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -1006,7 +521,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -1034,154 +549,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1431,33 +832,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6363636363636" customWidth="1"/>
-    <col min="2" max="2" width="13.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="13.5454545454545" customWidth="1"/>
-    <col min="4" max="4" width="40.5454545454545" customWidth="1"/>
-    <col min="5" max="5" width="12.0909090909091" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
+    <col min="4" max="4" width="40.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1471,7 +872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1482,7 +883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -1493,7 +894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1501,7 +902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1509,7 +910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1523,7 +924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1531,7 +932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1542,7 +943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1553,7 +954,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1564,12 +965,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1583,7 +984,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1594,7 +995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1605,7 +1006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1613,7 +1014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1624,7 +1025,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -1635,7 +1036,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1646,7 +1047,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1657,7 +1058,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1668,7 +1069,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1679,7 +1080,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -1690,7 +1091,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -1701,14 +1102,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" t="s">
-        <v>43</v>
       </c>
       <c r="B28" t="s">
         <v>2</v>
@@ -1720,7 +1121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1728,43 +1129,43 @@
         <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
         <v>44</v>
       </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>46</v>
       </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
         <v>47</v>
       </c>
-      <c r="B31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>49</v>
       </c>
-      <c r="B32" t="s">
+      <c r="D32" t="s">
         <v>50</v>
       </c>
-      <c r="D32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1772,10 +1173,10 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>1</v>
       </c>
@@ -1783,43 +1184,43 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>53</v>
       </c>
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
         <v>54</v>
       </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" t="s">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
         <v>56</v>
       </c>
-      <c r="B37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1827,28 +1228,28 @@
         <v>6</v>
       </c>
       <c r="D38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
         <v>59</v>
       </c>
-      <c r="B39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" t="s">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
         <v>2</v>
@@ -1860,9 +1261,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
         <v>6</v>
@@ -1871,7 +1272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>7</v>
       </c>
@@ -1882,14 +1283,14 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
-        <v>64</v>
       </c>
       <c r="B47" t="s">
         <v>2</v>
@@ -1901,21 +1302,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
         <v>2</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -1923,20 +1324,20 @@
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D49" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
-        <v>66</v>
       </c>
       <c r="B52" t="s">
         <v>2</v>
@@ -1948,23 +1349,23 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
         <v>67</v>
       </c>
-      <c r="B53" t="s">
-        <v>2</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>68</v>
       </c>
-      <c r="D53" t="s">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>70</v>
       </c>
       <c r="B54" t="s">
         <v>2</v>
@@ -1973,21 +1374,21 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" t="s">
         <v>72</v>
       </c>
-      <c r="B55" t="s">
-        <v>2</v>
-      </c>
-      <c r="D55" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>1</v>
       </c>
@@ -1995,17 +1396,17 @@
         <v>2</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
-        <v>75</v>
       </c>
       <c r="B59" t="s">
         <v>2</v>
@@ -2017,7 +1418,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>1</v>
       </c>
@@ -2025,10 +1426,10 @@
         <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -2036,17 +1437,17 @@
         <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>77</v>
       </c>
       <c r="B64" t="s">
         <v>2</v>
@@ -2058,7 +1459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>1</v>
       </c>
@@ -2066,10 +1467,10 @@
         <v>2</v>
       </c>
       <c r="C65" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>22</v>
       </c>
@@ -2077,44 +1478,44 @@
         <v>2</v>
       </c>
       <c r="C66" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
         <v>78</v>
       </c>
-      <c r="B67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" t="s">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D68" t="s">
         <v>80</v>
       </c>
-      <c r="B68" t="s">
-        <v>2</v>
-      </c>
-      <c r="D68" t="s">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
         <v>82</v>
       </c>
-      <c r="B69" t="s">
-        <v>6</v>
-      </c>
-      <c r="D69" t="s">
-        <v>83</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>